--- a/data/data_list.xlsx
+++ b/data/data_list.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bigdata\tourbigdata\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E627A43-02F0-4DB8-9761-4B050B930040}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF220661-5050-4DD7-B1D2-9376E7C1DDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{072F1CE6-7BD4-4D74-AF4D-13B5894C5462}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7440" activeTab="1" xr2:uid="{072F1CE6-7BD4-4D74-AF4D-13B5894C5462}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
   <si>
     <t>신한카드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +274,130 @@
   </si>
   <si>
     <t>여행지 정보 입수 경로 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만족도 데이터셋 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변수명 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말레이지아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙아시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타중동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도네시아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Etc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대중교통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광안내서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ptran</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>room</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>budg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C97546C8-7B31-442B-808E-127C2DC3C117}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -939,4 +1064,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DB67DE-BA9C-4917-B16E-4F39D36E24E8}">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>